--- a/CodeBook_12_17_2020.xlsx
+++ b/CodeBook_12_17_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachel/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD0BE6B-E076-124A-9B84-A7D14BAF61FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C46857-A5E5-314E-9BAA-6EB270CAC2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="2940" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="736">
   <si>
     <t>people/year</t>
   </si>
@@ -2284,6 +2284,11 @@
   </si>
   <si>
     <t>The planned minimum wage in each state in 2026.</t>
+  </si>
+  <si>
+    <t>Resources for minimum wage: https://www.google.com/url?q=https://www.dol.gov/agencies/whd/state/minimum-wage/his[…]D&amp;ust=1608220680440000&amp;usg=AFQjCNH1SotAdC5yJ5YiVGBcXQYhLVJIZg
+https://www.google.com/url?q=https://www.dol.gov/agencies/whd/minimum-wage/state&amp;sa=[…]D&amp;ust=1608220680433000&amp;usg=AFQjCNHU8MYB5eMsLwm3-c_bBiMin0JqEg
+https://www.google.com/url?q=https://www.dol.gov/agencies/whd/state/minimum-wage/tip[…]D&amp;ust=1608220680432000&amp;usg=AFQjCNFWSj2-JXVTzQiySOB3Os2INBwFAg</t>
   </si>
 </sst>
 </file>
@@ -2861,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D176" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="I177" sqref="I177"/>
+    <sheetView tabSelected="1" topLeftCell="G179" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -7680,7 +7685,7 @@
       </c>
       <c r="I181" s="26"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="135">
       <c r="A182" s="26" t="s">
         <v>674</v>
       </c>
@@ -7702,12 +7707,14 @@
       <c r="G182" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="H182" s="26"/>
+      <c r="H182" s="26" t="s">
+        <v>679</v>
+      </c>
       <c r="I182" s="26" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="15">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="26" t="s">
         <v>680</v>
       </c>
@@ -7729,12 +7736,12 @@
       <c r="G183" s="26" t="s">
         <v>683</v>
       </c>
-      <c r="H183" s="26"/>
-      <c r="I183" s="26" t="s">
+      <c r="H183" s="26" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" ht="15">
+      <c r="I183" s="26"/>
+    </row>
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="26" t="s">
         <v>684</v>
       </c>
@@ -7756,12 +7763,12 @@
       <c r="G184" s="26" t="s">
         <v>683</v>
       </c>
-      <c r="H184" s="26"/>
-      <c r="I184" s="26" t="s">
+      <c r="H184" s="26" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" ht="15">
+      <c r="I184" s="26"/>
+    </row>
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="26" t="s">
         <v>687</v>
       </c>
@@ -7783,12 +7790,12 @@
       <c r="G185" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="H185" s="26"/>
-      <c r="I185" s="26" t="s">
+      <c r="H185" s="26" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" ht="15">
+      <c r="I185" s="26"/>
+    </row>
+    <row r="186" spans="1:9" ht="30">
       <c r="A186" s="26" t="s">
         <v>691</v>
       </c>
@@ -7810,12 +7817,12 @@
       <c r="G186" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="H186" s="26"/>
-      <c r="I186" s="26" t="s">
+      <c r="H186" s="26" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" ht="15">
+      <c r="I186" s="26"/>
+    </row>
+    <row r="187" spans="1:9" ht="30">
       <c r="A187" s="26" t="s">
         <v>695</v>
       </c>
@@ -7837,12 +7844,12 @@
       <c r="G187" s="26" t="s">
         <v>698</v>
       </c>
-      <c r="H187" s="26"/>
-      <c r="I187" s="26" t="s">
+      <c r="H187" s="26" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" ht="45">
+      <c r="I187" s="26"/>
+    </row>
+    <row r="188" spans="1:9" ht="105">
       <c r="A188" s="26" t="s">
         <v>699</v>
       </c>
@@ -7864,12 +7871,12 @@
       <c r="G188" s="26" t="s">
         <v>702</v>
       </c>
-      <c r="H188" s="26"/>
-      <c r="I188" s="26" t="s">
+      <c r="H188" s="26" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" ht="30">
+      <c r="I188" s="26"/>
+    </row>
+    <row r="189" spans="1:9" ht="75">
       <c r="A189" s="26" t="s">
         <v>704</v>
       </c>
@@ -7891,12 +7898,12 @@
       <c r="G189" s="26" t="s">
         <v>707</v>
       </c>
-      <c r="H189" s="26"/>
-      <c r="I189" s="26" t="s">
+      <c r="H189" s="26" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" ht="30">
+      <c r="I189" s="26"/>
+    </row>
+    <row r="190" spans="1:9" ht="60">
       <c r="A190" s="26" t="s">
         <v>709</v>
       </c>
@@ -7918,12 +7925,12 @@
       <c r="G190" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="H190" s="26"/>
-      <c r="I190" s="26" t="s">
+      <c r="H190" s="26" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" ht="30">
+      <c r="I190" s="26"/>
+    </row>
+    <row r="191" spans="1:9" ht="45">
       <c r="A191" s="26" t="s">
         <v>713</v>
       </c>
@@ -7945,12 +7952,12 @@
       <c r="G191" s="26" t="s">
         <v>698</v>
       </c>
-      <c r="H191" s="26"/>
-      <c r="I191" s="26" t="s">
+      <c r="H191" s="26" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" ht="30">
+      <c r="I191" s="26"/>
+    </row>
+    <row r="192" spans="1:9" ht="45">
       <c r="A192" s="26" t="s">
         <v>717</v>
       </c>
@@ -7972,12 +7979,12 @@
       <c r="G192" s="26" t="s">
         <v>720</v>
       </c>
-      <c r="H192" s="26"/>
-      <c r="I192" s="26" t="s">
+      <c r="H192" s="26" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" ht="30">
+      <c r="I192" s="26"/>
+    </row>
+    <row r="193" spans="1:9" ht="45">
       <c r="A193" s="26" t="s">
         <v>721</v>
       </c>
@@ -7999,12 +8006,12 @@
       <c r="G193" s="26" t="s">
         <v>724</v>
       </c>
-      <c r="H193" s="26"/>
-      <c r="I193" s="26" t="s">
+      <c r="H193" s="26" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" ht="30">
+      <c r="I193" s="26"/>
+    </row>
+    <row r="194" spans="1:9" ht="45">
       <c r="A194" s="26" t="s">
         <v>725</v>
       </c>
@@ -8026,12 +8033,12 @@
       <c r="G194" s="26" t="s">
         <v>724</v>
       </c>
-      <c r="H194" s="26"/>
-      <c r="I194" s="26" t="s">
+      <c r="H194" s="26" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" ht="30">
+      <c r="I194" s="26"/>
+    </row>
+    <row r="195" spans="1:9" ht="45">
       <c r="A195" s="26" t="s">
         <v>728</v>
       </c>
@@ -8053,12 +8060,12 @@
       <c r="G195" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="H195" s="26"/>
-      <c r="I195" s="26" t="s">
+      <c r="H195" s="26" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" ht="30">
+      <c r="I195" s="26"/>
+    </row>
+    <row r="196" spans="1:9" ht="45">
       <c r="A196" s="26" t="s">
         <v>732</v>
       </c>
@@ -8080,10 +8087,10 @@
       <c r="G196" s="26">
         <v>15</v>
       </c>
-      <c r="H196" s="26"/>
-      <c r="I196" s="26" t="s">
+      <c r="H196" s="26" t="s">
         <v>716</v>
       </c>
+      <c r="I196" s="26"/>
     </row>
   </sheetData>
   <customSheetViews>
